--- a/ResultadoEleicoesDistritos/VILA REAL_VILA POUCA DE AGUIAR.xlsx
+++ b/ResultadoEleicoesDistritos/VILA REAL_VILA POUCA DE AGUIAR.xlsx
@@ -597,64 +597,64 @@
         <v>4111</v>
       </c>
       <c r="H2" t="n">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="I2" t="n">
-        <v>370</v>
+        <v>456</v>
       </c>
       <c r="J2" t="n">
-        <v>1710</v>
+        <v>1719</v>
       </c>
       <c r="K2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L2" t="n">
-        <v>456</v>
+        <v>505</v>
       </c>
       <c r="M2" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="N2" t="n">
-        <v>272</v>
+        <v>291</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P2" t="n">
         <v>8</v>
       </c>
       <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>27</v>
+      </c>
+      <c r="S2" t="n">
+        <v>166</v>
+      </c>
+      <c r="T2" t="n">
+        <v>276</v>
+      </c>
+      <c r="U2" t="n">
+        <v>23</v>
+      </c>
+      <c r="V2" t="n">
+        <v>2550</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X2" t="n">
+        <v>2642</v>
+      </c>
+      <c r="Y2" t="n">
         <v>5</v>
       </c>
-      <c r="R2" t="n">
-        <v>25</v>
-      </c>
-      <c r="S2" t="n">
-        <v>216</v>
-      </c>
-      <c r="T2" t="n">
-        <v>311</v>
-      </c>
-      <c r="U2" t="n">
-        <v>20</v>
-      </c>
-      <c r="V2" t="n">
-        <v>2630</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>2656</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>3</v>
-      </c>
       <c r="Z2" t="n">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="AA2" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
